--- a/public/data/yield_loss/yield_table_zambia.xlsx
+++ b/public/data/yield_loss/yield_table_zambia.xlsx
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1184.5</v>
+        <v>1151.94</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>98.71</v>
       </c>
       <c r="U4" t="n">
-        <v>142.44</v>
+        <v>141.56</v>
       </c>
       <c r="V4" t="n">
         <v>19.67</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>159.12</v>
+        <v>159.11</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>189.71</v>
+        <v>189.66</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>3.09</v>
       </c>
       <c r="U6" t="n">
-        <v>49.84</v>
+        <v>49.04</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2364.03</v>
+        <v>2352.12</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>26.25</v>
       </c>
       <c r="U7" t="n">
-        <v>719.55</v>
+        <v>718.3</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>32.21</v>
       </c>
       <c r="F9" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="G9" t="n">
         <v>6.27</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>821.11</v>
+        <v>750.55</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -2117,7 +2117,7 @@
         <v>26.04</v>
       </c>
       <c r="U9" t="n">
-        <v>1462.38</v>
+        <v>1417.55</v>
       </c>
       <c r="V9" t="n">
         <v>30.53</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>690.37</v>
+        <v>688.65</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1262.9</v>
+        <v>1262.69</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -2277,7 +2277,7 @@
         <v>12.69</v>
       </c>
       <c r="U11" t="n">
-        <v>203.62</v>
+        <v>224.38</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>4.37</v>
       </c>
       <c r="Z11" t="n">
-        <v>2880.26</v>
+        <v>2880.22</v>
       </c>
     </row>
     <row r="12">
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1064.33</v>
+        <v>1053.13</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>75.16</v>
       </c>
       <c r="U12" t="n">
-        <v>120.56</v>
+        <v>120.17</v>
       </c>
       <c r="V12" t="n">
         <v>13.72</v>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -4490,19 +4490,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>675.97</v>
+        <v>727.7</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>967.17</v>
+        <v>952.22</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>44.57</v>
+        <v>43.78</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>10.13</v>
+        <v>10.12</v>
       </c>
       <c r="T39" t="n">
-        <v>7.15</v>
+        <v>6.99</v>
       </c>
       <c r="U39" t="n">
-        <v>13.33</v>
+        <v>15.78</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>128.5</v>
+        <v>128.48</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -4552,7 +4552,7 @@
         <v>0.03</v>
       </c>
       <c r="F40" t="n">
-        <v>18.64</v>
+        <v>19.24</v>
       </c>
       <c r="G40" t="n">
         <v>619.15</v>
@@ -4567,10 +4567,10 @@
         <v>0.39</v>
       </c>
       <c r="K40" t="n">
-        <v>3.31</v>
+        <v>3.6</v>
       </c>
       <c r="L40" t="n">
-        <v>3130.8</v>
+        <v>2640.15</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>6.48</v>
+        <v>6.47</v>
       </c>
       <c r="Q40" t="n">
         <v>0.61</v>
@@ -4597,7 +4597,7 @@
         <v>26.33</v>
       </c>
       <c r="U40" t="n">
-        <v>27.92</v>
+        <v>25.94</v>
       </c>
       <c r="V40" t="n">
         <v>62.35</v>
@@ -4650,19 +4650,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>3763.67</v>
+        <v>4016.67</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>6611.77</v>
+        <v>7041.82</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>799.96</v>
+        <v>848.2</v>
       </c>
       <c r="Q41" t="n">
         <v>0.06</v>
@@ -4671,19 +4671,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>286.07</v>
+        <v>298.62</v>
       </c>
       <c r="T41" t="n">
-        <v>53.48</v>
+        <v>56.24</v>
       </c>
       <c r="U41" t="n">
-        <v>99.6</v>
+        <v>117.98</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1008.93</v>
+        <v>949.47</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -4730,19 +4730,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>683.07</v>
+        <v>688.95</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>398.36</v>
+        <v>397.23</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>66.18</v>
+        <v>65.68</v>
       </c>
       <c r="Q42" t="n">
         <v>0.03</v>
@@ -4751,19 +4751,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.4</v>
+        <v>44.11</v>
       </c>
       <c r="T42" t="n">
-        <v>8.24</v>
+        <v>8.15</v>
       </c>
       <c r="U42" t="n">
-        <v>20.91</v>
+        <v>21.68</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>63.3</v>
+        <v>63.29</v>
       </c>
       <c r="X42" t="n">
         <v>0.01</v>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1155.78</v>
+        <v>1150.29</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -4837,7 +4837,7 @@
         <v>3.73</v>
       </c>
       <c r="U43" t="n">
-        <v>43.88</v>
+        <v>44.04</v>
       </c>
       <c r="V43" t="n">
         <v>5.07</v>
@@ -4890,19 +4890,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>806.34</v>
+        <v>834.16</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>838.66</v>
+        <v>835.74</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>69.53</v>
+        <v>68.9</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -4911,19 +4911,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.01</v>
+        <v>50.57</v>
       </c>
       <c r="T44" t="n">
-        <v>4.12</v>
+        <v>4.07</v>
       </c>
       <c r="U44" t="n">
-        <v>17.69</v>
+        <v>18.94</v>
       </c>
       <c r="V44" t="n">
         <v>0.63</v>
       </c>
       <c r="W44" t="n">
-        <v>52.99</v>
+        <v>52.96</v>
       </c>
       <c r="X44" t="n">
         <v>0.03</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>182.16</v>
+        <v>182.08</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -4997,7 +4997,7 @@
         <v>16.41</v>
       </c>
       <c r="U45" t="n">
-        <v>20.85</v>
+        <v>20.58</v>
       </c>
       <c r="V45" t="n">
         <v>365.01</v>
@@ -5050,19 +5050,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>2084.54</v>
+        <v>1698.92</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1875.66</v>
+        <v>1865.39</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>188.14</v>
+        <v>186.83</v>
       </c>
       <c r="Q46" t="n">
         <v>0.25</v>
@@ -5071,19 +5071,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>127.28</v>
+        <v>126.48</v>
       </c>
       <c r="T46" t="n">
-        <v>25.02</v>
+        <v>24.84</v>
       </c>
       <c r="U46" t="n">
-        <v>116.6</v>
+        <v>109.25</v>
       </c>
       <c r="V46" t="n">
         <v>417.77</v>
       </c>
       <c r="W46" t="n">
-        <v>274.37</v>
+        <v>274.36</v>
       </c>
       <c r="X46" t="n">
         <v>2.01</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>38.15</v>
+        <v>38.07</v>
       </c>
       <c r="G47" t="n">
         <v>289.51</v>
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>1864.56</v>
+        <v>1739.9</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -5139,10 +5139,10 @@
         <v>3359.93</v>
       </c>
       <c r="O47" t="n">
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
       <c r="P47" t="n">
-        <v>79.02</v>
+        <v>79</v>
       </c>
       <c r="Q47" t="n">
         <v>5.18</v>
@@ -5151,13 +5151,13 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>284.3</v>
+        <v>284.25</v>
       </c>
       <c r="T47" t="n">
-        <v>31.75</v>
+        <v>31.74</v>
       </c>
       <c r="U47" t="n">
-        <v>34.99</v>
+        <v>34.48</v>
       </c>
       <c r="V47" t="n">
         <v>180.45</v>
@@ -5210,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>927.86</v>
+        <v>923.19</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -5237,7 +5237,7 @@
         <v>3.38</v>
       </c>
       <c r="U48" t="n">
-        <v>17.02</v>
+        <v>16.96</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -5290,19 +5290,19 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>2148.46</v>
+        <v>1474.54</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>1148.4</v>
+        <v>1147.46</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>27.25</v>
+        <v>27.15</v>
       </c>
       <c r="Q49" t="n">
         <v>0.02</v>
@@ -5311,13 +5311,13 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>71.08</v>
+        <v>70.93</v>
       </c>
       <c r="T49" t="n">
-        <v>24.07</v>
+        <v>24.05</v>
       </c>
       <c r="U49" t="n">
-        <v>38.53</v>
+        <v>29.26</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>191.57</v>
+        <v>191.42</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -5397,7 +5397,7 @@
         <v>18.78</v>
       </c>
       <c r="U50" t="n">
-        <v>7.5</v>
+        <v>7.48</v>
       </c>
       <c r="V50" t="n">
         <v>68.58</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>18.53</v>
+        <v>18.57</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -5477,7 +5477,7 @@
         <v>2.73</v>
       </c>
       <c r="U51" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>576.55</v>
+        <v>576.43</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -5770,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>337.25</v>
+        <v>297.44</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -5797,7 +5797,7 @@
         <v>2.58</v>
       </c>
       <c r="U55" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -6170,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>9.37</v>
+        <v>9.36</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.59</v>
+        <v>0.55</v>
       </c>
       <c r="G67" t="n">
         <v>41.91</v>
@@ -6730,34 +6730,34 @@
         <v>0.14</v>
       </c>
       <c r="L67" t="n">
-        <v>1346.62</v>
+        <v>1308.56</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>4835.76</v>
+        <v>4809.59</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>33.75</v>
+        <v>33.58</v>
       </c>
       <c r="Q67" t="n">
-        <v>43.45</v>
+        <v>43.25</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>4.19</v>
+        <v>4.17</v>
       </c>
       <c r="T67" t="n">
-        <v>5.81</v>
+        <v>5.79</v>
       </c>
       <c r="U67" t="n">
-        <v>18.85</v>
+        <v>20.31</v>
       </c>
       <c r="V67" t="n">
         <v>815.25</v>
@@ -6810,34 +6810,34 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>2029.03</v>
+        <v>1892.04</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>10320.56</v>
+        <v>10201.02</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>50.15</v>
+        <v>49.12</v>
       </c>
       <c r="Q68" t="n">
-        <v>64.65</v>
+        <v>64.05</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>8.8</v>
+        <v>8.72</v>
       </c>
       <c r="T68" t="n">
-        <v>10.39</v>
+        <v>10.29</v>
       </c>
       <c r="U68" t="n">
-        <v>58.77</v>
+        <v>59.7</v>
       </c>
       <c r="V68" t="n">
         <v>1484.32</v>
@@ -6890,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>613.39</v>
+        <v>611.58</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -6917,7 +6917,7 @@
         <v>3.79</v>
       </c>
       <c r="U69" t="n">
-        <v>27.65</v>
+        <v>28.09</v>
       </c>
       <c r="V69" t="n">
         <v>146.5</v>
@@ -6967,22 +6967,22 @@
         <v>0.02</v>
       </c>
       <c r="K70" t="n">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="L70" t="n">
-        <v>741.18</v>
+        <v>761.09</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>4296.59</v>
+        <v>4256.01</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>15.45</v>
+        <v>15.29</v>
       </c>
       <c r="Q70" t="n">
         <v>1.37</v>
@@ -6991,19 +6991,19 @@
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="T70" t="n">
-        <v>9.86</v>
+        <v>9.78</v>
       </c>
       <c r="U70" t="n">
-        <v>36.79</v>
+        <v>39.9</v>
       </c>
       <c r="V70" t="n">
         <v>6863.07</v>
       </c>
       <c r="W70" t="n">
-        <v>529.28</v>
+        <v>529.25</v>
       </c>
       <c r="X70" t="n">
         <v>0</v>
@@ -7012,7 +7012,7 @@
         <v>4.37</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="71">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>1300.24</v>
+        <v>1297.57</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>5940</v>
+        <v>5902.25</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>10.36</v>
+        <v>10.23</v>
       </c>
       <c r="Q71" t="n">
         <v>5.23</v>
@@ -7074,16 +7074,16 @@
         <v>1.64</v>
       </c>
       <c r="T71" t="n">
-        <v>11.06</v>
+        <v>11</v>
       </c>
       <c r="U71" t="n">
-        <v>84.77</v>
+        <v>86.38</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>797.9</v>
+        <v>797.87</v>
       </c>
       <c r="X71" t="n">
         <v>0</v>
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>24.34</v>
+        <v>24.29</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -7130,34 +7130,34 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>2213.47</v>
+        <v>1701.37</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>15171.3</v>
+        <v>15110.82</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>12.92</v>
+        <v>12.84</v>
       </c>
       <c r="Q72" t="n">
-        <v>75.91</v>
+        <v>75.4</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>6.42</v>
+        <v>6.35</v>
       </c>
       <c r="T72" t="n">
-        <v>58.13</v>
+        <v>57.91</v>
       </c>
       <c r="U72" t="n">
-        <v>614.62</v>
+        <v>703.32</v>
       </c>
       <c r="V72" t="n">
         <v>214.53</v>
@@ -7172,7 +7172,7 @@
         <v>0.24</v>
       </c>
       <c r="Z72" t="n">
-        <v>312.59</v>
+        <v>312.05</v>
       </c>
     </row>
     <row r="73">
@@ -7192,7 +7192,7 @@
         <v>2.32</v>
       </c>
       <c r="F73" t="n">
-        <v>4.36</v>
+        <v>3.78</v>
       </c>
       <c r="G73" t="n">
         <v>68.69</v>
@@ -7207,43 +7207,43 @@
         <v>4.13</v>
       </c>
       <c r="K73" t="n">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
       <c r="L73" t="n">
-        <v>7223.32</v>
+        <v>6079.9</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>28611.1</v>
+        <v>28517.23</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>32.77</v>
+        <v>32.65</v>
       </c>
       <c r="Q73" t="n">
-        <v>176.25</v>
+        <v>175.31</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>18.98</v>
+        <v>18.89</v>
       </c>
       <c r="T73" t="n">
-        <v>151.91</v>
+        <v>151.43</v>
       </c>
       <c r="U73" t="n">
-        <v>3122.85</v>
+        <v>2810.41</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>4314.15</v>
+        <v>4313.64</v>
       </c>
       <c r="X73" t="n">
         <v>0</v>
@@ -7269,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>308.49</v>
+        <v>308.26</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -7290,34 +7290,34 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>4950.74</v>
+        <v>4523.25</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>33780.58</v>
+        <v>33752.28</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>10.91</v>
+        <v>10.9</v>
       </c>
       <c r="Q74" t="n">
-        <v>15.88</v>
+        <v>15.79</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>3.24</v>
+        <v>3.23</v>
       </c>
       <c r="T74" t="n">
-        <v>341.44</v>
+        <v>341.17</v>
       </c>
       <c r="U74" t="n">
-        <v>11970.94</v>
+        <v>11909.29</v>
       </c>
       <c r="V74" t="n">
         <v>0</v>
@@ -7332,7 +7332,7 @@
         <v>13.93</v>
       </c>
       <c r="Z74" t="n">
-        <v>5696.48</v>
+        <v>5693.02</v>
       </c>
     </row>
     <row r="75">
@@ -7352,7 +7352,7 @@
         <v>0.03</v>
       </c>
       <c r="F75" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G75" t="n">
         <v>8.83</v>
@@ -7370,13 +7370,13 @@
         <v>1.02</v>
       </c>
       <c r="L75" t="n">
-        <v>863.92</v>
+        <v>852.19</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>1661.57</v>
+        <v>1661.5</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -7397,7 +7397,7 @@
         <v>2.12</v>
       </c>
       <c r="U75" t="n">
-        <v>13.05</v>
+        <v>13.11</v>
       </c>
       <c r="V75" t="n">
         <v>17111.24</v>
@@ -7450,19 +7450,19 @@
         <v>0.36</v>
       </c>
       <c r="L76" t="n">
-        <v>1322.41</v>
+        <v>1309.43</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>6647.18</v>
+        <v>6634.74</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>8.76</v>
+        <v>8.71</v>
       </c>
       <c r="Q76" t="n">
         <v>8.8</v>
@@ -7474,10 +7474,10 @@
         <v>4.31</v>
       </c>
       <c r="T76" t="n">
-        <v>11.89</v>
+        <v>11.87</v>
       </c>
       <c r="U76" t="n">
-        <v>146.15</v>
+        <v>146.01</v>
       </c>
       <c r="V76" t="n">
         <v>0</v>
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G77" t="n">
         <v>191.63</v>
@@ -7530,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>1016.66</v>
+        <v>821.31</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -7557,7 +7557,7 @@
         <v>2.44</v>
       </c>
       <c r="U77" t="n">
-        <v>3.95</v>
+        <v>3.27</v>
       </c>
       <c r="V77" t="n">
         <v>80.79</v>
@@ -7592,7 +7592,7 @@
         <v>0.03</v>
       </c>
       <c r="F78" t="n">
-        <v>18.32</v>
+        <v>18.79</v>
       </c>
       <c r="G78" t="n">
         <v>833.18</v>
@@ -7607,10 +7607,10 @@
         <v>0.4</v>
       </c>
       <c r="K78" t="n">
-        <v>3.65</v>
+        <v>3.93</v>
       </c>
       <c r="L78" t="n">
-        <v>3685.72</v>
+        <v>3001.48</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -7637,7 +7637,7 @@
         <v>14.92</v>
       </c>
       <c r="U78" t="n">
-        <v>19.44</v>
+        <v>17.93</v>
       </c>
       <c r="V78" t="n">
         <v>0.42</v>
@@ -7770,34 +7770,34 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>3738.44</v>
+        <v>2285.45</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>1578.04</v>
+        <v>1551.43</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>33.7</v>
+        <v>33.4</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>23.52</v>
+        <v>23.38</v>
       </c>
       <c r="T80" t="n">
         <v>1.31</v>
       </c>
       <c r="U80" t="n">
-        <v>17.51</v>
+        <v>15.17</v>
       </c>
       <c r="V80" t="n">
         <v>45.22</v>
@@ -7850,40 +7850,40 @@
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>6790.44</v>
+        <v>3942.07</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>12062.99</v>
+        <v>11842.66</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>307.07</v>
+        <v>300.98</v>
       </c>
       <c r="Q81" t="n">
-        <v>12.06</v>
+        <v>11.67</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>141.99</v>
+        <v>139.15</v>
       </c>
       <c r="T81" t="n">
-        <v>9.39</v>
+        <v>9.28</v>
       </c>
       <c r="U81" t="n">
-        <v>45.55</v>
+        <v>44.7</v>
       </c>
       <c r="V81" t="n">
         <v>11680.78</v>
       </c>
       <c r="W81" t="n">
-        <v>393.79</v>
+        <v>393.78</v>
       </c>
       <c r="X81" t="n">
         <v>83.91</v>
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="G83" t="n">
         <v>549.08</v>
@@ -8010,13 +8010,13 @@
         <v>0.03</v>
       </c>
       <c r="L83" t="n">
-        <v>4572.29</v>
+        <v>4055.01</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>1968.54</v>
+        <v>1968.49</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -8037,7 +8037,7 @@
         <v>14.69</v>
       </c>
       <c r="U83" t="n">
-        <v>13.03</v>
+        <v>11.93</v>
       </c>
       <c r="V83" t="n">
         <v>0</v>
@@ -8090,7 +8090,7 @@
         <v>0.1</v>
       </c>
       <c r="L84" t="n">
-        <v>1501.94</v>
+        <v>1238.85</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -8117,7 +8117,7 @@
         <v>182.28</v>
       </c>
       <c r="U84" t="n">
-        <v>7.87</v>
+        <v>6.81</v>
       </c>
       <c r="V84" t="n">
         <v>71.56</v>
@@ -8170,34 +8170,34 @@
         <v>0.04</v>
       </c>
       <c r="L85" t="n">
-        <v>5527.06</v>
+        <v>2336.84</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>5512.56</v>
+        <v>5366.43</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>118.52</v>
+        <v>114.45</v>
       </c>
       <c r="Q85" t="n">
-        <v>4.62</v>
+        <v>4.31</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>26.16</v>
+        <v>24.38</v>
       </c>
       <c r="T85" t="n">
         <v>0.3</v>
       </c>
       <c r="U85" t="n">
-        <v>7.39</v>
+        <v>4.01</v>
       </c>
       <c r="V85" t="n">
         <v>1567.86</v>
@@ -8232,7 +8232,7 @@
         <v>0.06</v>
       </c>
       <c r="F86" t="n">
-        <v>35.48</v>
+        <v>35.23</v>
       </c>
       <c r="G86" t="n">
         <v>1495.39</v>
@@ -8247,37 +8247,37 @@
         <v>0.06</v>
       </c>
       <c r="K86" t="n">
-        <v>4.55</v>
+        <v>4.52</v>
       </c>
       <c r="L86" t="n">
-        <v>4255.68</v>
+        <v>2774.91</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>2023.05</v>
+        <v>1991.54</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>37.11</v>
+        <v>36.72</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R86" t="n">
         <v>0.12</v>
       </c>
       <c r="S86" t="n">
-        <v>7.93</v>
+        <v>7.76</v>
       </c>
       <c r="T86" t="n">
         <v>0.97</v>
       </c>
       <c r="U86" t="n">
-        <v>9.6</v>
+        <v>7.19</v>
       </c>
       <c r="V86" t="n">
         <v>472.35</v>
@@ -8330,34 +8330,34 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>5688.34</v>
+        <v>2885.61</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>4021.59</v>
+        <v>3992.07</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>48.13</v>
+        <v>47.65</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
       </c>
       <c r="S87" t="n">
-        <v>15.92</v>
+        <v>15.73</v>
       </c>
       <c r="T87" t="n">
-        <v>6.24</v>
+        <v>6.23</v>
       </c>
       <c r="U87" t="n">
-        <v>12.91</v>
+        <v>11.34</v>
       </c>
       <c r="V87" t="n">
         <v>946.49</v>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>73.68</v>
+        <v>73.67</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -9130,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>40.59</v>
+        <v>40.56</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
@@ -9370,19 +9370,19 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>1214.57</v>
+        <v>1202.78</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>1548.26</v>
+        <v>1542.8</v>
       </c>
       <c r="O100" t="n">
         <v>0</v>
       </c>
       <c r="P100" t="n">
-        <v>166.74</v>
+        <v>166.15</v>
       </c>
       <c r="Q100" t="n">
         <v>0.22</v>
@@ -9391,13 +9391,13 @@
         <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>113.26</v>
+        <v>112.82</v>
       </c>
       <c r="T100" t="n">
-        <v>9.07</v>
+        <v>9.03</v>
       </c>
       <c r="U100" t="n">
-        <v>50.46</v>
+        <v>51.61</v>
       </c>
       <c r="V100" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>758.06</v>
+        <v>709.59</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.82</v>
       </c>
       <c r="U101" t="n">
-        <v>71.09</v>
+        <v>69.71</v>
       </c>
       <c r="V101" t="n">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>71.51</v>
+        <v>71.49</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -9610,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>591.59</v>
+        <v>588.09</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>2.28</v>
       </c>
       <c r="U103" t="n">
-        <v>16.64</v>
+        <v>16.54</v>
       </c>
       <c r="V103" t="n">
         <v>0</v>
@@ -9770,19 +9770,19 @@
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>670.5</v>
+        <v>657.78</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>622.71</v>
+        <v>622.13</v>
       </c>
       <c r="O105" t="n">
         <v>0</v>
       </c>
       <c r="P105" t="n">
-        <v>43.37</v>
+        <v>43.32</v>
       </c>
       <c r="Q105" t="n">
         <v>0.02</v>
@@ -9791,13 +9791,13 @@
         <v>0</v>
       </c>
       <c r="S105" t="n">
-        <v>31.39</v>
+        <v>31.36</v>
       </c>
       <c r="T105" t="n">
         <v>3.14</v>
       </c>
       <c r="U105" t="n">
-        <v>12.75</v>
+        <v>12.85</v>
       </c>
       <c r="V105" t="n">
         <v>0</v>
@@ -9850,7 +9850,7 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>22.45</v>
+        <v>17.55</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -9930,22 +9930,22 @@
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>2333.35</v>
+        <v>909.85</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>33062.19</v>
+        <v>26516.71</v>
       </c>
       <c r="O107" t="n">
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="Q107" t="n">
-        <v>24.7</v>
+        <v>20.1</v>
       </c>
       <c r="R107" t="n">
         <v>0</v>
@@ -9954,16 +9954,16 @@
         <v>0</v>
       </c>
       <c r="T107" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="U107" t="n">
-        <v>678.72</v>
+        <v>358.16</v>
       </c>
       <c r="V107" t="n">
         <v>0</v>
       </c>
       <c r="W107" t="n">
-        <v>456.7</v>
+        <v>455.2</v>
       </c>
       <c r="X107" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Z107" t="n">
-        <v>790.19</v>
+        <v>617.2</v>
       </c>
     </row>
     <row r="108">
@@ -10010,13 +10010,13 @@
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>2649.84</v>
+        <v>1586.03</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>3777.3</v>
+        <v>3768.38</v>
       </c>
       <c r="O108" t="n">
         <v>0</v>
@@ -10031,13 +10031,13 @@
         <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>28.09</v>
+        <v>28.01</v>
       </c>
       <c r="T108" t="n">
-        <v>10.56</v>
+        <v>10.55</v>
       </c>
       <c r="U108" t="n">
-        <v>10.88</v>
+        <v>9.45</v>
       </c>
       <c r="V108" t="n">
         <v>0</v>
@@ -10090,40 +10090,40 @@
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>2268.99</v>
+        <v>947.56</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>24387.72</v>
+        <v>20517.1</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
       </c>
       <c r="P109" t="n">
-        <v>109.6</v>
+        <v>90.87</v>
       </c>
       <c r="Q109" t="n">
-        <v>143.87</v>
+        <v>119.6</v>
       </c>
       <c r="R109" t="n">
         <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>42.58</v>
+        <v>35.67</v>
       </c>
       <c r="T109" t="n">
-        <v>237.55</v>
+        <v>209.43</v>
       </c>
       <c r="U109" t="n">
-        <v>220.06</v>
+        <v>111.01</v>
       </c>
       <c r="V109" t="n">
-        <v>213.62</v>
+        <v>213.61</v>
       </c>
       <c r="W109" t="n">
-        <v>1056.16</v>
+        <v>1017.1</v>
       </c>
       <c r="X109" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Z109" t="n">
-        <v>25.38</v>
+        <v>25.12</v>
       </c>
     </row>
     <row r="110">
@@ -10170,40 +10170,40 @@
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>5807.83</v>
+        <v>3059.67</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>26169.29</v>
+        <v>25881.1</v>
       </c>
       <c r="O110" t="n">
         <v>0</v>
       </c>
       <c r="P110" t="n">
-        <v>70.76</v>
+        <v>69.98</v>
       </c>
       <c r="Q110" t="n">
-        <v>232.22</v>
+        <v>229.25</v>
       </c>
       <c r="R110" t="n">
         <v>0</v>
       </c>
       <c r="S110" t="n">
-        <v>58.32</v>
+        <v>57.61</v>
       </c>
       <c r="T110" t="n">
-        <v>867.06</v>
+        <v>856.37</v>
       </c>
       <c r="U110" t="n">
-        <v>905.22</v>
+        <v>618.81</v>
       </c>
       <c r="V110" t="n">
         <v>2.95</v>
       </c>
       <c r="W110" t="n">
-        <v>2616.44</v>
+        <v>2615.64</v>
       </c>
       <c r="X110" t="n">
         <v>0</v>
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>6.78</v>
+        <v>2.43</v>
       </c>
       <c r="G111" t="n">
         <v>1618.31</v>
@@ -10250,40 +10250,40 @@
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>4388.7</v>
+        <v>1955.26</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>6852.34</v>
+        <v>6633.29</v>
       </c>
       <c r="O111" t="n">
         <v>0</v>
       </c>
       <c r="P111" t="n">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="Q111" t="n">
-        <v>15.17</v>
+        <v>15.15</v>
       </c>
       <c r="R111" t="n">
         <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>36.02</v>
+        <v>34.18</v>
       </c>
       <c r="T111" t="n">
-        <v>74.43</v>
+        <v>74.02</v>
       </c>
       <c r="U111" t="n">
-        <v>42.86</v>
+        <v>31.29</v>
       </c>
       <c r="V111" t="n">
         <v>0</v>
       </c>
       <c r="W111" t="n">
-        <v>241.97</v>
+        <v>241.6</v>
       </c>
       <c r="X111" t="n">
         <v>0</v>
@@ -10292,7 +10292,7 @@
         <v>0</v>
       </c>
       <c r="Z111" t="n">
-        <v>11.41</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="112">
@@ -10330,34 +10330,34 @@
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>7355.05</v>
+        <v>5187.7</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>11970.28</v>
+        <v>11967.84</v>
       </c>
       <c r="O112" t="n">
         <v>0</v>
       </c>
       <c r="P112" t="n">
-        <v>5.69</v>
+        <v>5.68</v>
       </c>
       <c r="Q112" t="n">
-        <v>45.06</v>
+        <v>45.05</v>
       </c>
       <c r="R112" t="n">
         <v>0</v>
       </c>
       <c r="S112" t="n">
-        <v>7.21</v>
+        <v>7.2</v>
       </c>
       <c r="T112" t="n">
-        <v>478.24</v>
+        <v>478.15</v>
       </c>
       <c r="U112" t="n">
-        <v>233.49</v>
+        <v>197.48</v>
       </c>
       <c r="V112" t="n">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0.13</v>
       </c>
       <c r="F113" t="n">
-        <v>12.92</v>
+        <v>10.38</v>
       </c>
       <c r="G113" t="n">
         <v>733.37</v>
@@ -10407,43 +10407,43 @@
         <v>0.33</v>
       </c>
       <c r="K113" t="n">
-        <v>5.46</v>
+        <v>5.47</v>
       </c>
       <c r="L113" t="n">
-        <v>1996.17</v>
+        <v>1062.48</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>7895.35</v>
+        <v>7743.78</v>
       </c>
       <c r="O113" t="n">
         <v>0</v>
       </c>
       <c r="P113" t="n">
-        <v>8.74</v>
+        <v>8.55</v>
       </c>
       <c r="Q113" t="n">
-        <v>146.91</v>
+        <v>144.01</v>
       </c>
       <c r="R113" t="n">
         <v>0</v>
       </c>
       <c r="S113" t="n">
-        <v>40.08</v>
+        <v>39.29</v>
       </c>
       <c r="T113" t="n">
-        <v>65.02</v>
+        <v>63.78</v>
       </c>
       <c r="U113" t="n">
-        <v>140.4</v>
+        <v>100.9</v>
       </c>
       <c r="V113" t="n">
         <v>299.6</v>
       </c>
       <c r="W113" t="n">
-        <v>1192.16</v>
+        <v>1191.29</v>
       </c>
       <c r="X113" t="n">
         <v>0</v>
@@ -10452,7 +10452,7 @@
         <v>0.15</v>
       </c>
       <c r="Z113" t="n">
-        <v>15.39</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="114">
@@ -10490,13 +10490,13 @@
         <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>4203.28</v>
+        <v>1410.8</v>
       </c>
       <c r="M114" t="n">
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>30222.75</v>
+        <v>24165.01</v>
       </c>
       <c r="O114" t="n">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>2.06</v>
       </c>
       <c r="Q114" t="n">
-        <v>56.12</v>
+        <v>41.6</v>
       </c>
       <c r="R114" t="n">
         <v>0</v>
@@ -10514,16 +10514,16 @@
         <v>0.85</v>
       </c>
       <c r="T114" t="n">
-        <v>20.27</v>
+        <v>20.26</v>
       </c>
       <c r="U114" t="n">
-        <v>1941.65</v>
+        <v>714.38</v>
       </c>
       <c r="V114" t="n">
         <v>1.04</v>
       </c>
       <c r="W114" t="n">
-        <v>835.8</v>
+        <v>826.73</v>
       </c>
       <c r="X114" t="n">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="Z114" t="n">
-        <v>2199.02</v>
+        <v>1629.71</v>
       </c>
     </row>
     <row r="115">
@@ -10552,7 +10552,7 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>2.7</v>
+        <v>1.21</v>
       </c>
       <c r="G115" t="n">
         <v>1871.57</v>
@@ -10567,43 +10567,43 @@
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="L115" t="n">
-        <v>6021.39</v>
+        <v>2733.18</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>30030.37</v>
+        <v>28736.04</v>
       </c>
       <c r="O115" t="n">
         <v>0</v>
       </c>
       <c r="P115" t="n">
-        <v>143.44</v>
+        <v>134.75</v>
       </c>
       <c r="Q115" t="n">
-        <v>420.07</v>
+        <v>392.17</v>
       </c>
       <c r="R115" t="n">
         <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>101.03</v>
+        <v>94.31</v>
       </c>
       <c r="T115" t="n">
-        <v>309.84</v>
+        <v>296.13</v>
       </c>
       <c r="U115" t="n">
-        <v>336.09</v>
+        <v>216</v>
       </c>
       <c r="V115" t="n">
         <v>344.37</v>
       </c>
       <c r="W115" t="n">
-        <v>2328.84</v>
+        <v>2317.44</v>
       </c>
       <c r="X115" t="n">
         <v>0</v>
@@ -10612,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="Z115" t="n">
-        <v>4.03</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="116">
@@ -10650,13 +10650,13 @@
         <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>1181.46</v>
+        <v>941.19</v>
       </c>
       <c r="M116" t="n">
         <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>2836.45</v>
+        <v>2836.22</v>
       </c>
       <c r="O116" t="n">
         <v>0</v>
@@ -10671,13 +10671,13 @@
         <v>0</v>
       </c>
       <c r="S116" t="n">
-        <v>18.44</v>
+        <v>18.43</v>
       </c>
       <c r="T116" t="n">
         <v>7.94</v>
       </c>
       <c r="U116" t="n">
-        <v>36.67</v>
+        <v>33.97</v>
       </c>
       <c r="V116" t="n">
         <v>0</v>
